--- a/Superstore Sales Returns Data.xlsx
+++ b/Superstore Sales Returns Data.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssleg\Portfolio\Projects\Superstore Sales Data Analysis Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" url="C:\Users\ssleg\Portfolio\Projects\Superstore Sales Analysis Project\"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Returns" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" r:id="rId1" name="Returns"/>
+    <sheet r:id="rId5" name="returns1" sheetId="2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="returns">'returns1'!$A$1:$B$801</definedName>
+  </definedNames>
+  <calcPr calcId="0" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
@@ -1404,9 +1404,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -1456,7 +1455,11 @@
   <dxfs count="4">
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1466,11 +1469,14 @@
         <name val="Scada"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1480,11 +1486,14 @@
         <name val="Scada"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1494,11 +1503,14 @@
         <name val="Scada"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1508,7 +1520,6 @@
         <name val="Scada"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1799,15 +1810,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B801"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8225,4 +8234,9631 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B801"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row outlineLevel="0" r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>Returned</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>Order ID</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-100762</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-100762</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-100762</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-100762</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-100867</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-102652</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-102652</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-102652</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-102652</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-103373</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-103744</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-103744</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-103940</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-103940</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-103940</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-103940</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-104829</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-105270</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-105270</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-108609</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-108861</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-109918</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-109918</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-109918</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-110786</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-110786</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-110786</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-110786</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-110786</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-110786</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-110786</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-111871</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-116785</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-116785</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-123225</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-123225</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-123253</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-123498</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-123498</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-124688</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-124688</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-124688</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-126361</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-126361</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-126361</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-126361</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-126361</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-126361</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-126403</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-126403</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-126403</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-126403</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-126522</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-127012</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-127012</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-127012</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-127131</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-127131</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-127131</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-127131</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-133690</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-133690</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-134726</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-134726</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-135657</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-135699</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-135699</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-140816</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-141726</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-141726</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-141726</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-141726</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-142769</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-142769</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-142769</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-142769</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-142769</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-142769</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-142769</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-142769</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-143336</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-143336</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-143336</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-143840</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-143840</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-148614</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-148614</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-148950</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-148950</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-148950</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-151162</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-151162</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-151162</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-151162</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-151162</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-152345</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-152345</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-153150</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-156349</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-156349</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-156349</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-157924</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-157924</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-159338</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-160766</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-160766</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-160766</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-160766</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-160766</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-160766</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-160766</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="113">
+      <c r="A113" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B113" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-160773</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="114">
+      <c r="A114" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B114" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-160773</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="115">
+      <c r="A115" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B115" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-164721</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="116">
+      <c r="A116" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B116" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-164721</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="117">
+      <c r="A117" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B117" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-164721</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="118">
+      <c r="A118" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B118" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-164861</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="119">
+      <c r="A119" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B119" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-166744</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="120">
+      <c r="A120" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B120" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-166744</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="121">
+      <c r="A121" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B121" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-166744</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="122">
+      <c r="A122" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B122" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-169019</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="123">
+      <c r="A123" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B123" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-169019</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="124">
+      <c r="A124" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B124" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-169019</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="125">
+      <c r="A125" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B125" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-169019</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="126">
+      <c r="A126" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B126" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-169019</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="127">
+      <c r="A127" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B127" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-169019</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="128">
+      <c r="A128" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B128" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-101910</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="129">
+      <c r="A129" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B129" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-103716</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="130">
+      <c r="A130" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B130" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-103716</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="131">
+      <c r="A131" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B131" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-104129</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="132">
+      <c r="A132" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B132" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-104129</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="133">
+      <c r="A133" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B133" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-105158</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="134">
+      <c r="A134" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B134" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-105158</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="135">
+      <c r="A135" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B135" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-107678</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="136">
+      <c r="A136" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B136" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-107678</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="137">
+      <c r="A137" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B137" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-107678</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="138">
+      <c r="A138" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B138" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-107678</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="139">
+      <c r="A139" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B139" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-109736</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="140">
+      <c r="A140" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B140" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-110814</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="141">
+      <c r="A141" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B141" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-110814</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="142">
+      <c r="A142" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B142" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-110814</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="143">
+      <c r="A143" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B143" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-111948</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="144">
+      <c r="A144" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B144" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-111948</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="145">
+      <c r="A145" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B145" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-112144</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="146">
+      <c r="A146" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B146" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-112144</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="147">
+      <c r="A147" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B147" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-113628</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="148">
+      <c r="A148" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B148" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-113628</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="149">
+      <c r="A149" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B149" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-113628</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="150">
+      <c r="A150" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B150" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-113628</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="151">
+      <c r="A151" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B151" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-113628</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="152">
+      <c r="A152" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B152" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-113628</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="153">
+      <c r="A153" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B153" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-114048</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="154">
+      <c r="A154" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B154" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-116092</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="155">
+      <c r="A155" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B155" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-116092</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="156">
+      <c r="A156" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B156" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-116092</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="157">
+      <c r="A157" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B157" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-116092</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="158">
+      <c r="A158" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B158" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-116092</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="159">
+      <c r="A159" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B159" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-119214</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="160">
+      <c r="A160" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B160" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-119214</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="161">
+      <c r="A161" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B161" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-119907</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="162">
+      <c r="A162" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B162" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-123568</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="163">
+      <c r="A163" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B163" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-123568</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="164">
+      <c r="A164" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B164" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-123568</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="165">
+      <c r="A165" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B165" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-123568</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="166">
+      <c r="A166" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B166" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-124058</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="167">
+      <c r="A167" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B167" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-124058</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="168">
+      <c r="A168" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B168" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-130456</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="169">
+      <c r="A169" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B169" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-130456</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="170">
+      <c r="A170" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B170" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-130785</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="171">
+      <c r="A171" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B171" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-130785</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="172">
+      <c r="A172" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B172" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-130785</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="173">
+      <c r="A173" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B173" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-132374</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="174">
+      <c r="A174" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B174" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-132941</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="175">
+      <c r="A175" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B175" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-132941</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="176">
+      <c r="A176" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B176" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-132941</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="177">
+      <c r="A177" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B177" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-134075</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="178">
+      <c r="A178" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B178" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-134075</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="179">
+      <c r="A179" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B179" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-134201</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="180">
+      <c r="A180" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B180" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-134201</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="181">
+      <c r="A181" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B181" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-135580</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="182">
+      <c r="A182" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B182" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-135580</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="183">
+      <c r="A183" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B183" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-135580</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="184">
+      <c r="A184" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B184" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-135580</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="185">
+      <c r="A185" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B185" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-135580</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="186">
+      <c r="A186" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B186" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-138674</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="187">
+      <c r="A187" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B187" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-138674</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="188">
+      <c r="A188" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B188" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-138674</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="189">
+      <c r="A189" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B189" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-139731</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="190">
+      <c r="A190" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B190" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-139731</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="191">
+      <c r="A191" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B191" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-140984</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="192">
+      <c r="A192" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B192" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-140984</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="193">
+      <c r="A193" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B193" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-140984</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="194">
+      <c r="A194" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B194" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-141593</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="195">
+      <c r="A195" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B195" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-141593</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="196">
+      <c r="A196" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B196" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-141593</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="197">
+      <c r="A197" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B197" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-141593</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="198">
+      <c r="A198" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B198" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-142601</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="199">
+      <c r="A199" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B199" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-142601</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="200">
+      <c r="A200" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B200" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-143238</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="201">
+      <c r="A201" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B201" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-143490</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="202">
+      <c r="A202" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B202" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-143490</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="203">
+      <c r="A203" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B203" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-143602</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="204">
+      <c r="A204" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B204" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-144267</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="205">
+      <c r="A205" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B205" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-144267</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="206">
+      <c r="A206" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B206" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-144267</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="207">
+      <c r="A207" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B207" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-144267</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="208">
+      <c r="A208" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B208" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-146255</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="209">
+      <c r="A209" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B209" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-146255</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="210">
+      <c r="A210" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B210" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-146255</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="211">
+      <c r="A211" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B211" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-146255</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="212">
+      <c r="A212" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B212" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-146262</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="213">
+      <c r="A213" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B213" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-146262</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="214">
+      <c r="A214" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B214" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-146262</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="215">
+      <c r="A215" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B215" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-146262</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="216">
+      <c r="A216" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B216" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-146262</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="217">
+      <c r="A217" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B217" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-146486</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="218">
+      <c r="A218" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B218" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-146486</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="219">
+      <c r="A219" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B219" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-146486</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="220">
+      <c r="A220" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B220" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-146486</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="221">
+      <c r="A221" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B221" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-148873</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="222">
+      <c r="A222" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B222" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-148873</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="223">
+      <c r="A223" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B223" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-149342</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="224">
+      <c r="A224" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B224" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-149342</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="225">
+      <c r="A225" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B225" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-149342</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="226">
+      <c r="A226" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B226" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-149636</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="227">
+      <c r="A227" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B227" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-149636</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="228">
+      <c r="A228" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B228" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-149650</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="229">
+      <c r="A229" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B229" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-150770</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="230">
+      <c r="A230" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B230" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-150770</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="231">
+      <c r="A231" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B231" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-150770</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="232">
+      <c r="A232" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B232" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-150770</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="233">
+      <c r="A233" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B233" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-150875</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="234">
+      <c r="A234" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B234" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-150875</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="235">
+      <c r="A235" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B235" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-151547</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="236">
+      <c r="A236" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B236" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-153220</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="237">
+      <c r="A237" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B237" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-154970</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="238">
+      <c r="A238" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B238" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-155761</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="239">
+      <c r="A239" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B239" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-155761</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="240">
+      <c r="A240" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B240" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-156440</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="241">
+      <c r="A241" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B241" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-157770</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="242">
+      <c r="A242" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B242" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-157770</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="243">
+      <c r="A243" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B243" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-157770</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="244">
+      <c r="A244" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B244" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-157770</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="245">
+      <c r="A245" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B245" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-157812</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="246">
+      <c r="A246" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B246" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-157812</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="247">
+      <c r="A247" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B247" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-157812</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="248">
+      <c r="A248" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B248" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-161627</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="249">
+      <c r="A249" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B249" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-162166</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="250">
+      <c r="A250" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B250" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-162166</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="251">
+      <c r="A251" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B251" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-164882</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="252">
+      <c r="A252" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B252" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-164882</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="253">
+      <c r="A253" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B253" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-164882</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="254">
+      <c r="A254" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B254" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-164882</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="255">
+      <c r="A255" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B255" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-164882</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="256">
+      <c r="A256" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B256" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-164882</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="257">
+      <c r="A257" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B257" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-164882</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="258">
+      <c r="A258" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B258" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-164882</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="259">
+      <c r="A259" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B259" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-164882</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="260">
+      <c r="A260" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B260" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-168480</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="261">
+      <c r="A261" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B261" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-168480</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="262">
+      <c r="A262" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B262" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-168564</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="263">
+      <c r="A263" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B263" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-168564</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="264">
+      <c r="A264" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B264" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-168564</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="265">
+      <c r="A265" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B265" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-169397</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="266">
+      <c r="A266" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B266" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-169397</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="267">
+      <c r="A267" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B267" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-169397</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="268">
+      <c r="A268" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B268" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-169397</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="269">
+      <c r="A269" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B269" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-169397</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="270">
+      <c r="A270" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B270" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-169397</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="271">
+      <c r="A271" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B271" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-104689</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="272">
+      <c r="A272" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B272" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-105081</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="273">
+      <c r="A273" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B273" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-105081</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="274">
+      <c r="A274" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B274" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-105291</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="275">
+      <c r="A275" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B275" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-105585</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="276">
+      <c r="A276" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B276" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-105585</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="277">
+      <c r="A277" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B277" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-106950</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="278">
+      <c r="A278" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B278" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-106950</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="279">
+      <c r="A279" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B279" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-106950</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="280">
+      <c r="A280" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B280" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-106950</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="281">
+      <c r="A281" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B281" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-106950</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="282">
+      <c r="A282" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B282" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-106950</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="283">
+      <c r="A283" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B283" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-109806</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="284">
+      <c r="A284" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B284" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-109806</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="285">
+      <c r="A285" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B285" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-109806</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="286">
+      <c r="A286" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B286" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-109869</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="287">
+      <c r="A287" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B287" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-109869</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="288">
+      <c r="A288" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B288" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-109869</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="289">
+      <c r="A289" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B289" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-109869</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="290">
+      <c r="A290" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B290" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-109869</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="291">
+      <c r="A291" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B291" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-111682</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="292">
+      <c r="A292" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B292" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-111682</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="293">
+      <c r="A293" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B293" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-111682</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="294">
+      <c r="A294" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B294" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-111682</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="295">
+      <c r="A295" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B295" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-111682</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="296">
+      <c r="A296" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B296" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-111682</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="297">
+      <c r="A297" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B297" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-111682</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="298">
+      <c r="A298" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B298" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-112123</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="299">
+      <c r="A299" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B299" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-112123</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="300">
+      <c r="A300" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B300" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-112123</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="301">
+      <c r="A301" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B301" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-112340</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="302">
+      <c r="A302" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B302" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-113341</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="303">
+      <c r="A303" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B303" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-114307</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="304">
+      <c r="A304" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B304" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-114307</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="305">
+      <c r="A305" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B305" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-114307</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="306">
+      <c r="A306" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B306" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-114307</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="307">
+      <c r="A307" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B307" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-114727</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="308">
+      <c r="A308" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B308" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-114727</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="309">
+      <c r="A309" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B309" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-114727</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="310">
+      <c r="A310" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B310" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-114727</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="311">
+      <c r="A311" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B311" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-114727</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="312">
+      <c r="A312" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B312" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-115917</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="313">
+      <c r="A313" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B313" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-115917</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="314">
+      <c r="A314" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B314" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-116547</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="315">
+      <c r="A315" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B315" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-116547</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="316">
+      <c r="A316" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B316" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-116736</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="317">
+      <c r="A317" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B317" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-116736</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="318">
+      <c r="A318" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B318" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-116736</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="319">
+      <c r="A319" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B319" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-118311</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="320">
+      <c r="A320" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B320" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-118500</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="321">
+      <c r="A321" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B321" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-118899</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="322">
+      <c r="A322" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B322" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-120873</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="323">
+      <c r="A323" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B323" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-123526</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="324">
+      <c r="A324" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B324" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-124527</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="325">
+      <c r="A325" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B325" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-126529</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="326">
+      <c r="A326" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B326" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-126529</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="327">
+      <c r="A327" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B327" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-126529</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="328">
+      <c r="A328" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B328" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-126732</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="329">
+      <c r="A329" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B329" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-126732</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="330">
+      <c r="A330" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B330" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-126732</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="331">
+      <c r="A331" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B331" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-126732</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="332">
+      <c r="A332" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B332" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-126732</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="333">
+      <c r="A333" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B333" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-126732</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="334">
+      <c r="A334" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B334" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-128671</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="335">
+      <c r="A335" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B335" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-128671</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="336">
+      <c r="A336" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B336" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-128671</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="337">
+      <c r="A337" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B337" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-130477</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="338">
+      <c r="A338" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B338" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-130477</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="339">
+      <c r="A339" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B339" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-130477</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="340">
+      <c r="A340" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B340" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-130638</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="341">
+      <c r="A341" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B341" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-130638</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="342">
+      <c r="A342" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B342" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-130680</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="343">
+      <c r="A343" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B343" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-133319</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="344">
+      <c r="A344" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B344" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-133368</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="345">
+      <c r="A345" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B345" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-133368</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="346">
+      <c r="A346" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B346" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-133802</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="347">
+      <c r="A347" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B347" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-134775</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="348">
+      <c r="A348" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B348" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-134775</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="349">
+      <c r="A349" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B349" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-134803</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="350">
+      <c r="A350" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B350" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-134803</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="351">
+      <c r="A351" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B351" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-134803</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="352">
+      <c r="A352" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B352" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-134803</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="353">
+      <c r="A353" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B353" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-134803</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="354">
+      <c r="A354" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B354" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-136483</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="355">
+      <c r="A355" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B355" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-136924</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="356">
+      <c r="A356" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B356" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-138282</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="357">
+      <c r="A357" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B357" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-139269</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="358">
+      <c r="A358" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B358" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-139269</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="359">
+      <c r="A359" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B359" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-139269</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="360">
+      <c r="A360" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B360" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-142398</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="361">
+      <c r="A361" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B361" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-142398</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="362">
+      <c r="A362" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B362" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-145261</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="363">
+      <c r="A363" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B363" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-145261</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="364">
+      <c r="A364" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B364" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-145261</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="365">
+      <c r="A365" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B365" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-145261</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="366">
+      <c r="A366" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B366" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-145261</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="367">
+      <c r="A367" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B367" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-145261</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="368">
+      <c r="A368" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B368" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-145261</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="369">
+      <c r="A369" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B369" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-145492</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="370">
+      <c r="A370" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B370" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-145583</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="371">
+      <c r="A371" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B371" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-145583</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="372">
+      <c r="A372" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B372" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-145583</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="373">
+      <c r="A373" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B373" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-145583</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="374">
+      <c r="A374" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B374" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-145583</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="375">
+      <c r="A375" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B375" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-145583</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="376">
+      <c r="A376" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B376" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-145583</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="377">
+      <c r="A377" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B377" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-145919</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="378">
+      <c r="A378" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B378" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-145919</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="379">
+      <c r="A379" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B379" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-145919</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="380">
+      <c r="A380" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B380" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-145982</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="381">
+      <c r="A381" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B381" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-145982</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="382">
+      <c r="A382" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B382" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-145982</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="383">
+      <c r="A383" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B383" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-145982</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="384">
+      <c r="A384" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B384" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-145982</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="385">
+      <c r="A385" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B385" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-145982</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="386">
+      <c r="A386" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B386" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-147375</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="387">
+      <c r="A387" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B387" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-147375</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="388">
+      <c r="A388" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B388" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-148796</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="389">
+      <c r="A389" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B389" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-150077</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="390">
+      <c r="A390" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B390" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-151323</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="391">
+      <c r="A391" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B391" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-151372</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="392">
+      <c r="A392" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B392" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-151372</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="393">
+      <c r="A393" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B393" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-151372</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="394">
+      <c r="A394" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B394" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-152814</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="395">
+      <c r="A395" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B395" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-157280</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="396">
+      <c r="A396" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B396" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-157280</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="397">
+      <c r="A397" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B397" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-157280</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="398">
+      <c r="A398" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B398" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-159023</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="399">
+      <c r="A399" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B399" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-159023</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="400">
+      <c r="A400" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B400" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-159212</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="401">
+      <c r="A401" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B401" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-159212</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="402">
+      <c r="A402" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B402" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-159345</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="403">
+      <c r="A403" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B403" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-161746</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="404">
+      <c r="A404" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B404" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-161746</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="405">
+      <c r="A405" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B405" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-161746</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="406">
+      <c r="A406" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B406" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-161746</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="407">
+      <c r="A407" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B407" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-162138</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="408">
+      <c r="A408" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B408" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-162138</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="409">
+      <c r="A409" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B409" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-162159</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="410">
+      <c r="A410" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B410" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-165330</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="411">
+      <c r="A411" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B411" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-165330</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="412">
+      <c r="A412" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B412" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-165330</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="413">
+      <c r="A413" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B413" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-165330</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="414">
+      <c r="A414" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B414" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-165330</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="415">
+      <c r="A415" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B415" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-165330</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="416">
+      <c r="A416" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B416" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-165330</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="417">
+      <c r="A417" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B417" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-165330</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="418">
+      <c r="A418" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B418" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-165330</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="419">
+      <c r="A419" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B419" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-165330</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="420">
+      <c r="A420" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B420" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-165330</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="421">
+      <c r="A421" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B421" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-166275</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="422">
+      <c r="A422" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B422" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-167759</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="423">
+      <c r="A423" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B423" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-168921</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="424">
+      <c r="A424" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B424" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-100111</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="425">
+      <c r="A425" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B425" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-100111</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="426">
+      <c r="A426" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B426" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-100111</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="427">
+      <c r="A427" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B427" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-100111</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="428">
+      <c r="A428" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B428" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-100111</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="429">
+      <c r="A429" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B429" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-100111</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="430">
+      <c r="A430" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B430" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-100111</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="431">
+      <c r="A431" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B431" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-100111</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="432">
+      <c r="A432" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B432" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-100111</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="433">
+      <c r="A433" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B433" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-100111</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="434">
+      <c r="A434" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B434" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-100111</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="435">
+      <c r="A435" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B435" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-100111</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="436">
+      <c r="A436" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B436" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-100111</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="437">
+      <c r="A437" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B437" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-100111</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="438">
+      <c r="A438" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B438" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-101273</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="439">
+      <c r="A439" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B439" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-101574</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="440">
+      <c r="A440" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B440" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-101700</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="441">
+      <c r="A441" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B441" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-101700</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="442">
+      <c r="A442" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B442" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-101805</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="443">
+      <c r="A443" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B443" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-101805</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="444">
+      <c r="A444" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B444" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-101805</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="445">
+      <c r="A445" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B445" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-102519</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="446">
+      <c r="A446" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B446" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-102519</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="447">
+      <c r="A447" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B447" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-103380</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="448">
+      <c r="A448" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B448" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-103380</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="449">
+      <c r="A449" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B449" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-103380</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="450">
+      <c r="A450" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B450" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-103380</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="451">
+      <c r="A451" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B451" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-103380</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="452">
+      <c r="A452" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B452" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-107825</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="453">
+      <c r="A453" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B453" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-107825</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="454">
+      <c r="A454" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B454" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-107825</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="455">
+      <c r="A455" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B455" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-107825</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="456">
+      <c r="A456" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B456" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-108294</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="457">
+      <c r="A457" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B457" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-108931</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="458">
+      <c r="A458" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B458" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-108931</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="459">
+      <c r="A459" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B459" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-109085</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="460">
+      <c r="A460" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B460" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-109085</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="461">
+      <c r="A461" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B461" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-109085</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="462">
+      <c r="A462" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B462" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-109085</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="463">
+      <c r="A463" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B463" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-109085</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="464">
+      <c r="A464" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B464" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-111556</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="465">
+      <c r="A465" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B465" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-111556</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="466">
+      <c r="A466" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B466" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-111556</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="467">
+      <c r="A467" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B467" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-111556</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="468">
+      <c r="A468" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B468" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-112725</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="469">
+      <c r="A469" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B469" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-112725</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="470">
+      <c r="A470" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B470" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-112725</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="471">
+      <c r="A471" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B471" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-112753</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="472">
+      <c r="A472" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B472" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-112753</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="473">
+      <c r="A473" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B473" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-112865</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="474">
+      <c r="A474" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B474" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-113670</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="475">
+      <c r="A475" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B475" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-113670</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="476">
+      <c r="A476" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B476" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-115427</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="477">
+      <c r="A477" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B477" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-115427</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="478">
+      <c r="A478" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B478" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-115994</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="479">
+      <c r="A479" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B479" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-115994</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="480">
+      <c r="A480" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B480" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-117212</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="481">
+      <c r="A481" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B481" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-117212</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="482">
+      <c r="A482" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B482" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-117212</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="483">
+      <c r="A483" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B483" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-117212</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="484">
+      <c r="A484" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B484" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-117212</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="485">
+      <c r="A485" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B485" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-117513</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="486">
+      <c r="A486" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B486" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-117926</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="487">
+      <c r="A487" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B487" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-118122</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="488">
+      <c r="A488" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B488" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-118542</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="489">
+      <c r="A489" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B489" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-118542</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="490">
+      <c r="A490" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B490" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-119284</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="491">
+      <c r="A491" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B491" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-119284</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="492">
+      <c r="A492" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B492" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-119284</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="493">
+      <c r="A493" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B493" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-119284</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="494">
+      <c r="A494" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B494" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-119284</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="495">
+      <c r="A495" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B495" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-119284</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="496">
+      <c r="A496" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B496" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-119284</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="497">
+      <c r="A497" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B497" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-121258</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="498">
+      <c r="A498" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B498" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-121258</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="499">
+      <c r="A499" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B499" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-121258</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="500">
+      <c r="A500" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B500" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-121853</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="501">
+      <c r="A501" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B501" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-121853</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="502">
+      <c r="A502" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B502" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-121853</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="503">
+      <c r="A503" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B503" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-122007</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="504">
+      <c r="A504" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B504" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-122504</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="505">
+      <c r="A505" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B505" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-122504</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="506">
+      <c r="A506" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B506" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-123085</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="507">
+      <c r="A507" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B507" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-123085</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="508">
+      <c r="A508" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B508" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-123491</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="509">
+      <c r="A509" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B509" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-123491</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="510">
+      <c r="A510" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B510" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-123491</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="511">
+      <c r="A511" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B511" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-123491</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="512">
+      <c r="A512" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B512" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-123491</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="513">
+      <c r="A513" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B513" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-123491</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="514">
+      <c r="A514" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B514" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-124401</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="515">
+      <c r="A515" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B515" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-124401</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="516">
+      <c r="A516" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B516" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-127306</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="517">
+      <c r="A517" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B517" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-127306</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="518">
+      <c r="A518" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B518" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-127306</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="519">
+      <c r="A519" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B519" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-127306</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="520">
+      <c r="A520" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B520" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-127306</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="521">
+      <c r="A521" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B521" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-128965</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="522">
+      <c r="A522" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B522" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-128965</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="523">
+      <c r="A523" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B523" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-128965</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="524">
+      <c r="A524" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B524" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-128965</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="525">
+      <c r="A525" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B525" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-128965</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="526">
+      <c r="A526" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B526" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-128965</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="527">
+      <c r="A527" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B527" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-129707</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="528">
+      <c r="A528" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B528" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-130631</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="529">
+      <c r="A529" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B529" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-130631</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="530">
+      <c r="A530" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B530" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-131492</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="531">
+      <c r="A531" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B531" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-131492</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="532">
+      <c r="A532" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B532" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-131492</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="533">
+      <c r="A533" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B533" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-131492</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="534">
+      <c r="A534" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B534" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-131618</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="535">
+      <c r="A535" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B535" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-131618</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="536">
+      <c r="A536" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B536" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-131618</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="537">
+      <c r="A537" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B537" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-131807</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="538">
+      <c r="A538" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B538" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-131807</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="539">
+      <c r="A539" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B539" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-131807</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="540">
+      <c r="A540" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B540" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-131807</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="541">
+      <c r="A541" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B541" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-131807</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="542">
+      <c r="A542" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B542" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-131807</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="543">
+      <c r="A543" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B543" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-131828</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="544">
+      <c r="A544" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B544" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-131828</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="545">
+      <c r="A545" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B545" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-132346</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="546">
+      <c r="A546" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B546" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-134194</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="547">
+      <c r="A547" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B547" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-134194</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="548">
+      <c r="A548" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B548" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-134194</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="549">
+      <c r="A549" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B549" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-134194</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="550">
+      <c r="A550" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B550" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-134194</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="551">
+      <c r="A551" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B551" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-135692</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="552">
+      <c r="A552" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B552" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-135692</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="553">
+      <c r="A553" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B553" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-136308</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="554">
+      <c r="A554" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B554" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-136539</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="555">
+      <c r="A555" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B555" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-136539</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="556">
+      <c r="A556" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B556" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-136651</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="557">
+      <c r="A557" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B557" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-136651</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="558">
+      <c r="A558" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B558" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-136651</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="559">
+      <c r="A559" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B559" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-137085</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="560">
+      <c r="A560" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B560" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-137099</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="561">
+      <c r="A561" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B561" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-137414</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="562">
+      <c r="A562" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B562" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-137414</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="563">
+      <c r="A563" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B563" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-137428</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="564">
+      <c r="A564" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B564" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-137428</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="565">
+      <c r="A565" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B565" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-137428</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="566">
+      <c r="A566" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B566" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-137428</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="567">
+      <c r="A567" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B567" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-138163</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="568">
+      <c r="A568" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B568" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-140053</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="569">
+      <c r="A569" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B569" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-140151</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="570">
+      <c r="A570" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B570" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-140151</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="571">
+      <c r="A571" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B571" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-140151</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="572">
+      <c r="A572" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B572" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-140186</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="573">
+      <c r="A573" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B573" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-140186</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="574">
+      <c r="A574" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B574" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-140186</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="575">
+      <c r="A575" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B575" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-140186</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="576">
+      <c r="A576" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B576" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-140186</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="577">
+      <c r="A577" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B577" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-140585</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="578">
+      <c r="A578" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B578" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-140585</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="579">
+      <c r="A579" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B579" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-140585</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="580">
+      <c r="A580" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B580" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-140963</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="581">
+      <c r="A581" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B581" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-140963</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="582">
+      <c r="A582" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B582" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-140963</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="583">
+      <c r="A583" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B583" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-141929</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="584">
+      <c r="A584" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B584" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-141929</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="585">
+      <c r="A585" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B585" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-141929</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="586">
+      <c r="A586" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B586" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-142328</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="587">
+      <c r="A587" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B587" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-142342</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="588">
+      <c r="A588" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B588" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-142342</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="589">
+      <c r="A589" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B589" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-142342</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="590">
+      <c r="A590" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B590" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-142342</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="591">
+      <c r="A591" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B591" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-142867</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="592">
+      <c r="A592" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B592" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-142867</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="593">
+      <c r="A593" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B593" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-142888</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="594">
+      <c r="A594" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B594" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-143084</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="595">
+      <c r="A595" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B595" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-143084</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="596">
+      <c r="A596" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B596" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-144064</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="597">
+      <c r="A597" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B597" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-144064</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="598">
+      <c r="A598" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B598" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-144064</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="599">
+      <c r="A599" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B599" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-145128</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="600">
+      <c r="A600" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B600" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-145772</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="601">
+      <c r="A601" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B601" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-145772</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="602">
+      <c r="A602" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B602" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-145772</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="603">
+      <c r="A603" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B603" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-147452</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="604">
+      <c r="A604" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B604" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-147452</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="605">
+      <c r="A605" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B605" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-147452</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="606">
+      <c r="A606" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B606" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-150609</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="607">
+      <c r="A607" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B607" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-150910</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="608">
+      <c r="A608" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B608" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-150910</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="609">
+      <c r="A609" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B609" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-150910</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="610">
+      <c r="A610" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B610" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-150910</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="611">
+      <c r="A611" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B611" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-150910</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="612">
+      <c r="A612" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B612" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-152660</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="613">
+      <c r="A613" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B613" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-153822</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="614">
+      <c r="A614" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B614" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-153822</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="615">
+      <c r="A615" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B615" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-153822</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="616">
+      <c r="A616" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B616" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-153822</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="617">
+      <c r="A617" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B617" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-154074</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="618">
+      <c r="A618" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B618" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-154074</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="619">
+      <c r="A619" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B619" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-154214</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="620">
+      <c r="A620" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B620" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-154949</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="621">
+      <c r="A621" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B621" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-155712</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="622">
+      <c r="A622" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B622" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-156391</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="623">
+      <c r="A623" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B623" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-156958</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="624">
+      <c r="A624" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B624" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-156958</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="625">
+      <c r="A625" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B625" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-156958</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="626">
+      <c r="A626" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B626" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-156958</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="627">
+      <c r="A627" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B627" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-156958</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="628">
+      <c r="A628" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B628" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-157196</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="629">
+      <c r="A629" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B629" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-158729</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="630">
+      <c r="A630" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B630" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-159954</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="631">
+      <c r="A631" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B631" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-161459</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="632">
+      <c r="A632" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B632" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-161459</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="633">
+      <c r="A633" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B633" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-161557</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="634">
+      <c r="A634" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B634" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-161956</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="635">
+      <c r="A635" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B635" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-161956</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="636">
+      <c r="A636" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B636" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-161956</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="637">
+      <c r="A637" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B637" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-161956</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="638">
+      <c r="A638" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B638" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-161956</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="639">
+      <c r="A639" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B639" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-161956</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="640">
+      <c r="A640" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B640" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-161956</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="641">
+      <c r="A641" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B641" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-161956</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="642">
+      <c r="A642" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B642" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-162015</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="643">
+      <c r="A643" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B643" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-162015</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="644">
+      <c r="A644" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B644" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-165008</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="645">
+      <c r="A645" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B645" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-165491</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="646">
+      <c r="A646" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B646" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-166093</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="647">
+      <c r="A647" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B647" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-166093</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="648">
+      <c r="A648" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B648" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-166093</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="649">
+      <c r="A649" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B649" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-166093</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="650">
+      <c r="A650" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B650" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-166093</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="651">
+      <c r="A651" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B651" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-166093</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="652">
+      <c r="A652" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B652" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-166093</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="653">
+      <c r="A653" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B653" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-166142</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="654">
+      <c r="A654" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B654" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-166142</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="655">
+      <c r="A655" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B655" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-166898</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="656">
+      <c r="A656" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B656" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-166898</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="657">
+      <c r="A657" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B657" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-167003</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="658">
+      <c r="A658" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B658" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-167395</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="659">
+      <c r="A659" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B659" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-167395</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="660">
+      <c r="A660" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B660" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-167395</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="661">
+      <c r="A661" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B661" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-168193</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="662">
+      <c r="A662" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B662" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-168193</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="663">
+      <c r="A663" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B663" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-169327</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="664">
+      <c r="A664" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B664" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-169327</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="665">
+      <c r="A665" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B665" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-169327</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="666">
+      <c r="A666" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B666" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-169859</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="667">
+      <c r="A667" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B667" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-169859</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="668">
+      <c r="A668" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B668" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-169859</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="669">
+      <c r="A669" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B669" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-169894</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="670">
+      <c r="A670" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B670" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-169894</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="671">
+      <c r="A671" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B671" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-105137</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="672">
+      <c r="A672" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B672" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-105137</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="673">
+      <c r="A673" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B673" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-138758</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="674">
+      <c r="A674" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B674" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-138758</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="675">
+      <c r="A675" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B675" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-140452</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="676">
+      <c r="A676" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B676" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-140452</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="677">
+      <c r="A677" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B677" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-140452</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="678">
+      <c r="A678" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B678" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-140452</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="679">
+      <c r="A679" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B679" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-140452</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="680">
+      <c r="A680" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B680" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-140452</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="681">
+      <c r="A681" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B681" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-143287</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="682">
+      <c r="A682" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B682" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-143287</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="683">
+      <c r="A683" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B683" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-143287</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="684">
+      <c r="A684" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B684" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-150574</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="685">
+      <c r="A685" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B685" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-150574</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="686">
+      <c r="A686" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B686" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-164406</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="687">
+      <c r="A687" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B687" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-164406</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="688">
+      <c r="A688" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B688" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-164406</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="689">
+      <c r="A689" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B689" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-164406</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="690">
+      <c r="A690" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B690" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-164406</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="691">
+      <c r="A691" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B691" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-164763</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="692">
+      <c r="A692" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B692" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-164763</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="693">
+      <c r="A693" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B693" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-164763</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="694">
+      <c r="A694" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B694" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-164763</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="695">
+      <c r="A695" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B695" s="0" t="inlineStr">
+        <is>
+          <t>US-2019-164763</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="696">
+      <c r="A696" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B696" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-110569</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="697">
+      <c r="A697" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B697" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-110569</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="698">
+      <c r="A698" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B698" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-126214</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="699">
+      <c r="A699" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B699" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-126214</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="700">
+      <c r="A700" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B700" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-128090</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="701">
+      <c r="A701" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B701" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-128090</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="702">
+      <c r="A702" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B702" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-128090</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="703">
+      <c r="A703" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B703" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-128090</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="704">
+      <c r="A704" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B704" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-136749</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="705">
+      <c r="A705" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B705" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-136749</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="706">
+      <c r="A706" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B706" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-136987</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="707">
+      <c r="A707" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B707" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-136987</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="708">
+      <c r="A708" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B708" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-137008</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="709">
+      <c r="A709" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B709" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-137008</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="710">
+      <c r="A710" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B710" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-137008</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="711">
+      <c r="A711" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B711" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-160857</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="712">
+      <c r="A712" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B712" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-160857</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="713">
+      <c r="A713" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B713" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-160857</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="714">
+      <c r="A714" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B714" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-160857</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="715">
+      <c r="A715" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B715" s="0" t="inlineStr">
+        <is>
+          <t>US-2020-160857</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="716">
+      <c r="A716" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B716" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-105578</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="717">
+      <c r="A717" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B717" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-105578</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="718">
+      <c r="A718" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B718" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-105578</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="719">
+      <c r="A719" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B719" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-105578</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="720">
+      <c r="A720" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B720" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-105578</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="721">
+      <c r="A721" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B721" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-108455</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="722">
+      <c r="A722" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B722" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-108455</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="723">
+      <c r="A723" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B723" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-108455</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="724">
+      <c r="A724" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B724" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-111528</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="725">
+      <c r="A725" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B725" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-111528</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="726">
+      <c r="A726" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B726" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-114230</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="727">
+      <c r="A727" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B727" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-114293</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="728">
+      <c r="A728" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B728" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-115952</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="729">
+      <c r="A729" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B729" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-119046</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="730">
+      <c r="A730" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B730" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-119046</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="731">
+      <c r="A731" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B731" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-119046</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="732">
+      <c r="A732" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B732" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-127425</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="733">
+      <c r="A733" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B733" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-127425</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="734">
+      <c r="A734" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B734" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-131149</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="735">
+      <c r="A735" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B735" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-131149</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="736">
+      <c r="A736" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B736" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-135720</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="737">
+      <c r="A737" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B737" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-135720</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="738">
+      <c r="A738" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B738" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-135720</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="739">
+      <c r="A739" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B739" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-140172</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="740">
+      <c r="A740" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B740" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-140172</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="741">
+      <c r="A741" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B741" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-144057</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="742">
+      <c r="A742" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B742" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-144057</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="743">
+      <c r="A743" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B743" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-144057</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="744">
+      <c r="A744" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B744" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-144057</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="745">
+      <c r="A745" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B745" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-144057</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="746">
+      <c r="A746" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B746" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-148957</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="747">
+      <c r="A747" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B747" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-151827</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="748">
+      <c r="A748" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B748" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-151827</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="749">
+      <c r="A749" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B749" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-152051</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="750">
+      <c r="A750" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B750" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-152051</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="751">
+      <c r="A751" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B751" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-152051</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="752">
+      <c r="A752" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B752" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-156986</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="753">
+      <c r="A753" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B753" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-156986</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="754">
+      <c r="A754" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B754" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-156986</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="755">
+      <c r="A755" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B755" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-156986</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="756">
+      <c r="A756" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B756" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-157490</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="757">
+      <c r="A757" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B757" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-157490</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="758">
+      <c r="A758" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B758" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-157490</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="759">
+      <c r="A759" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B759" s="0" t="inlineStr">
+        <is>
+          <t>US-2021-157490</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="760">
+      <c r="A760" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B760" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-103247</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="761">
+      <c r="A761" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B761" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-103247</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="762">
+      <c r="A762" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B762" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-103828</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="763">
+      <c r="A763" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B763" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-103828</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="764">
+      <c r="A764" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B764" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-103828</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="765">
+      <c r="A765" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B765" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-103828</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="766">
+      <c r="A766" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B766" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-105046</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="767">
+      <c r="A767" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B767" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-105046</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="768">
+      <c r="A768" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B768" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-105046</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="769">
+      <c r="A769" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B769" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-107888</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="770">
+      <c r="A770" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B770" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-107888</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="771">
+      <c r="A771" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B771" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-107888</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="772">
+      <c r="A772" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B772" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-107888</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="773">
+      <c r="A773" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B773" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-109253</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="774">
+      <c r="A774" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B774" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-109253</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="775">
+      <c r="A775" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B775" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-109253</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="776">
+      <c r="A776" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B776" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-109253</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="777">
+      <c r="A777" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B777" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-109253</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="778">
+      <c r="A778" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B778" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-109253</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="779">
+      <c r="A779" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B779" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-109253</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="780">
+      <c r="A780" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B780" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-118087</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="781">
+      <c r="A781" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B781" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-118087</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="782">
+      <c r="A782" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B782" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-118087</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="783">
+      <c r="A783" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B783" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-118087</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="784">
+      <c r="A784" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B784" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-118087</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="785">
+      <c r="A785" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B785" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-118087</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="786">
+      <c r="A786" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B786" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-118087</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="787">
+      <c r="A787" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B787" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-118087</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="788">
+      <c r="A788" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B788" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-123834</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="789">
+      <c r="A789" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B789" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-136679</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="790">
+      <c r="A790" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B790" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-136679</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="791">
+      <c r="A791" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B791" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-147886</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="792">
+      <c r="A792" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B792" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-147886</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="793">
+      <c r="A793" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B793" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-147886</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="794">
+      <c r="A794" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B794" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-147886</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="795">
+      <c r="A795" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B795" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-147886</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="796">
+      <c r="A796" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B796" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-147886</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="797">
+      <c r="A797" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B797" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-147886</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="798">
+      <c r="A798" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B798" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-147998</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="799">
+      <c r="A799" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B799" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-151127</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="800">
+      <c r="A800" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B800" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-155999</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="801">
+      <c r="A801" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B801" s="0" t="inlineStr">
+        <is>
+          <t>US-2022-155999</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>